--- a/For Development/Persona.xlsx
+++ b/For Development/Persona.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://confederacaosicredi-my.sharepoint.com/personal/gustavo_schroeder_sicredi_com_br/Documents/Documents/GitHub/Assignment-Data-Prospection/For Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{6F8510E8-A770-4853-9745-67B02C496B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{73DEE6AA-71B5-47A4-8AB6-E070D4F40D32}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{6F8510E8-A770-4853-9745-67B02C496B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF4E94DA-FB67-4D8E-AA1B-9B08605F5816}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E3F13D1F-7946-42CC-8A0A-784C15D9D94E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E3F13D1F-7946-42CC-8A0A-784C15D9D94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -2739,8 +2739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0F15BF-E924-4141-B4B4-AEFE993182A1}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4941,8 +4941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F066C7F-EF80-4AA5-A7F9-10AC83D176C0}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4958,10 +4958,10 @@
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5000,16 +5000,16 @@
         <v>100</v>
       </c>
       <c r="L1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" t="s">
         <v>91</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>92</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>97</v>
-      </c>
-      <c r="O1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5047,22 +5047,22 @@
         <v>0</v>
       </c>
       <c r="L2">
+        <v>13</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
       <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>0</v>
-      </c>
-      <c r="O2">
-        <v>13</v>
       </c>
       <c r="P2" t="s">
         <v>117</v>
       </c>
       <c r="Q2" t="str">
-        <f>P2&amp;A2&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;G2&amp;","&amp;H2&amp;"," &amp;I2&amp;","&amp;J2&amp;","&amp;K2&amp;","&amp;L2&amp;","&amp;M2&amp;","&amp;N2&amp;","&amp;O2&amp;");"</f>
+        <f>P2&amp;A2&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;G2&amp;","&amp;H2&amp;"," &amp;I2&amp;","&amp;J2&amp;","&amp;K2&amp;","&amp;M2&amp;","&amp;N2&amp;","&amp;O2&amp;","&amp;L2&amp;");"</f>
         <v>INSERT INTO public.personaintoxicationdigital(persona, appsbydaymax, appsbydaymin, depressionmax, sleepqualitymax, sleepqualitymin, sleeptimemax, sleeptimemin, smsbydaymax, smsbydaymin, stressscalemin, timedarkenviromentmax, timedarkenviromentmin, depressionmmin, stressscalemax) VALUES ('Normal', 0,300,5,1,1,12,8,20,0,0,0,1,0,13);</v>
       </c>
     </row>
@@ -5101,22 +5101,22 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
         <v>5</v>
-      </c>
-      <c r="O3">
-        <v>13</v>
       </c>
       <c r="P3" t="s">
         <v>117</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q5" si="0">P3&amp;A3&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;"," &amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;","&amp;L3&amp;","&amp;M3&amp;","&amp;N3&amp;","&amp;O3&amp;");"</f>
+        <f>P3&amp;A3&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3&amp;","&amp;H3&amp;"," &amp;I3&amp;","&amp;J3&amp;","&amp;K3&amp;","&amp;M3&amp;","&amp;N3&amp;","&amp;O3&amp;","&amp;L3&amp;");"</f>
         <v>INSERT INTO public.personaintoxicationdigital(persona, appsbydaymax, appsbydaymin, depressionmax, sleepqualitymax, sleepqualitymin, sleeptimemax, sleeptimemin, smsbydaymax, smsbydaymin, stressscalemin, timedarkenviromentmax, timedarkenviromentmin, depressionmmin, stressscalemax) VALUES ('Digital Intoxication Mild', 300,500,10,1,1,8,7,30,20,0,1,2,5,13);</v>
       </c>
     </row>
@@ -5155,22 +5155,22 @@
         <v>13</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
         <v>10</v>
-      </c>
-      <c r="O4">
-        <v>26</v>
       </c>
       <c r="P4" t="s">
         <v>117</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" si="0"/>
+        <f>P4&amp;A4&amp;B4&amp;","&amp;C4&amp;","&amp;D4&amp;","&amp;E4&amp;","&amp;F4&amp;","&amp;G4&amp;","&amp;H4&amp;"," &amp;I4&amp;","&amp;J4&amp;","&amp;K4&amp;","&amp;M4&amp;","&amp;N4&amp;","&amp;O4&amp;","&amp;L4&amp;");"</f>
         <v>INSERT INTO public.personaintoxicationdigital(persona, appsbydaymax, appsbydaymin, depressionmax, sleepqualitymax, sleepqualitymin, sleeptimemax, sleeptimemin, smsbydaymax, smsbydaymin, stressscalemin, timedarkenviromentmax, timedarkenviromentmin, depressionmmin, stressscalemax) VALUES ('Digital Intoxication Medium', 500,700,15,3,2,7,6,40,30,13,2,3,10,26);</v>
       </c>
     </row>
@@ -5209,22 +5209,22 @@
         <v>26</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
         <v>9</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>15</v>
-      </c>
-      <c r="O5">
-        <v>40</v>
       </c>
       <c r="P5" t="s">
         <v>117</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" si="0"/>
+        <f>P5&amp;A5&amp;B5&amp;","&amp;C5&amp;","&amp;D5&amp;","&amp;E5&amp;","&amp;F5&amp;","&amp;G5&amp;","&amp;H5&amp;"," &amp;I5&amp;","&amp;J5&amp;","&amp;K5&amp;","&amp;M5&amp;","&amp;N5&amp;","&amp;O5&amp;","&amp;L5&amp;");"</f>
         <v>INSERT INTO public.personaintoxicationdigital(persona, appsbydaymax, appsbydaymin, depressionmax, sleepqualitymax, sleepqualitymin, sleeptimemax, sleeptimemin, smsbydaymax, smsbydaymin, stressscalemin, timedarkenviromentmax, timedarkenviromentmin, depressionmmin, stressscalemax) VALUES ('Digital Intoxication Hard', 700,2000,20,4,3,6,4,1000,50,26,3,9,15,40);</v>
       </c>
     </row>
